--- a/TRAMANDAI.xlsx
+++ b/TRAMANDAI.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MATERIAIS-FORNECIDOS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATA-LIMITE-REQUISICOES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BENS-INTERINOS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TABELIÕES-DOAÇÃO" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CPIP" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DESFAZIMENTOS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BENS-INTERINOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TABELIÕES-DOAÇÃO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CPIP LISTA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="DESFAZIMENTOS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TCA" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,7 +33,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,26 +58,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -438,16 +449,16 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="202" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="8.28515625" customWidth="1" min="1" max="1"/>
+    <col width="177.5703125" customWidth="1" min="2" max="2"/>
+    <col width="18.140625" customWidth="1" min="3" max="3"/>
+    <col width="8.28515625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,4427 +484,4427 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" t="n">
         <v>33468</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 1,5 METROS DE COMPRIMENTO.</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" t="n">
         <v>33469</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 2,5 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" t="n">
         <v>33470</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 3,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" t="n">
         <v>38615</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>CABO HDMI DE 10M. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA E/OU CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" t="n">
         <v>36771</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>CABO HDMI M X HDMI M, VERSÃO 1.4, BLINDADO, COMPRIMENTO DE 3M.</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" t="n">
         <v>37413</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>EXTENSÃO DE TOMADA 3 M</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" t="n">
         <v>15102</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>LEITOR DE CÓDIGO DE BARRAS</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" t="n">
         <v>34600</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>MOUSEPAD EM TECIDO NA COR PRETA COM BASE ANTIDERRAPANTE E APOIO DE PUNHO.</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" t="n">
         <v>37535</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>HEADSET (FONE DE CABEÇA COM MICROFONE) USB. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" t="n">
         <v>30020</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>LEITOR GRAVADOR DE CD E DVD EXTERNO, USB TIPO SLIM.</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" t="n">
         <v>37534</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>WEBCAM (CÂMERA WEB) HD. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA/CADERNO DE ESPECIFICAÇÕES TÉCNICAS.</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" t="n">
         <v>29590</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>ADAPTADOR DISPLAYPORT PARA HDMI. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" t="n">
         <v>33471</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>CABO PATCH CORD CATEGORIA 6 DE COR AZUL E 6,0 METROS DE COMPRIMENTO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" t="n">
         <v>30021</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>LEITOR DE CARTÃO SMARTCARD USB.</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" t="n">
         <v>28482</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>WEBCAM HD USB COM MICROFONE EMBUTIDO.</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>aces.inform.</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" t="n">
         <v>37925</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 110 VOLTS.</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" t="n">
         <v>37926</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>CAFETEIRA ELÉTRICA, COM CAPACIDADE DE NO MÍNIMO 1,2L, JARRA DE AÇO INOX, COM SISTEMA CORTA-PINGO E TENSÃO 220 VOLTS.</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Copa</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" t="n">
         <v>1228</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>GARRAFA TERMICA</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>copa</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" t="n">
         <v>4606</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUADRO BRANCO MAGNETICO TAM. 1,20X0,90M, MOLDURA EM ALUMINIO</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" t="n">
         <v>23887</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUADRO BRANCO, ALTO BRILHO, SUPERFÍCIE NÃO-ABRASIVA, DIMENSÕES 0,80 X 1,00 M</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" t="n">
         <v>18080</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 110V</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" t="n">
         <v>18142</v>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>VENTILADOR COM PEDESTAL, 50CM DIÂMETRO, 220V</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" t="n">
         <v>22701</v>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 2M X 1M, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CINZA ES</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" t="n">
         <v>22702</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>CAPACHO SINTÉTICO EM FIBRA VINIL, TAMANHO 900MM X 700MM, ESPESSURA MÍNIMA DO VINIL 11MM, TRAMA FUNDIDA NA BASE SÓLIDA, LAVÁVEL, ANTI-CHAMA, ANTIDERRAPANTE, COR CINZA CLARO, SEM TEXTO, BORDAS NA COR CI</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" t="n">
         <v>35918</v>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO MÉDIO (C)</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" t="n">
         <v>35915</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, 1,5V, TAMANHO PEQUENO (AA)</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" t="n">
         <v>35916</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>PILHA ALCALINA, TIPO PALITO (AAA)</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" t="n">
         <v>29324</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>APARELHO TELEFÔNICO ANALÓGICO, HOMOLOGADO PELA ANATEL</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" t="n">
         <v>1164</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>BANDEIRA DO ESTADO DO RIO GRANDE DO SUL, DUPLA FACE, TRÊS PANOS, EM TECIDO 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO, DIGITAL COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS, COM TARJ</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" t="n">
         <v>24981</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>BANDEIRA DO MERCOSUL</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" t="n">
         <v>1163</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>BANDEIRA NACIONAL, DUPLA FACE, TRÊS PANOS, EM 100% POLIÉSTER, MEDINDO 1,35 X 1,93M, IMPRESSÃO DIGITAL, COSTURAS DUPLAS EM NYLON, REFORÇADAS NAS LATERAIS E CANTOS COM TARJA NA COR BRANCA COM ILHOSES NI</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" t="n">
         <v>12033</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>CADEADO 35MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" t="n">
         <v>1904</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>CADEADO 50MM, COM DUAS CHAVES</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D34" s="3" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" t="n">
         <v>14815</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>CARRINHO TIPO CARREGADOR DE MALA</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" t="n">
         <v>27867</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>DISPLAY DE PAREDE CONFECCIONADO EM PLÁSTICO PVC CRISTAL DE ALTA TRANSPARÊNCIA. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" t="n">
         <v>2491</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 03 DEGRAUS</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D37" s="3" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" t="n">
         <v>1204</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 05 DEGRAUS</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" t="n">
         <v>1920</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>ESCADA METÁLICA COM 07 DEGRAUS</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" t="n">
         <v>11161</v>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>TELEFONE SEM FIO</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>diversos</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" t="n">
         <v>8157</v>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>FOGÃO COM 04 QUEIMADORES, FORNO</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" t="n">
         <v>37956</v>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 110V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" t="n">
         <v>37957</v>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO COM 2 PIAS (CONJUGADAS), CAPACIDADE DE 4 LITROS/HORA, 220V, GABINETE EM AÇO INOX. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" t="n">
         <v>15577</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 110V</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" t="n">
         <v>8156</v>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>BEBEDOURO DE PRESSÃO, 220V</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" t="n">
         <v>15316</v>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS 110V</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" t="n">
         <v>9742</v>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>FORNO MICROONDAS, 220V</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" t="n">
         <v>10211</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>REFRIGERADOR 110 VOLTS</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" t="n">
         <v>8155</v>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>REFRIGERADOR 220 VOLTS</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Eletros</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" t="n">
         <v>12092</v>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>PROJETOR MULTIMIDIA</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" t="n">
         <v>38984</v>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>SUPORTE DE PAREDE PARA TELEVISOR TELA PLANA</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D51" s="3" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" t="n">
         <v>7096</v>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>TELA PROJECAO</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" t="n">
         <v>38980</v>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 43 POLEGADAS</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" t="n">
         <v>38979</v>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>TELEVISOR LED DE 55 POLEGADAS</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" t="n">
         <v>36840</v>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RACK PARA TELEVISOR LCD, COM CAPACIDADE DE SUPORTAR TELEVISORES DE 37 A 55 POLEGADAS. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>equip. mídia</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" t="n">
         <v>1148</v>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>TESOURA MEDIA 7 POLEGADAS</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" t="n">
         <v>2360</v>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" t="n">
         <v>1766</v>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>CAIXA DE MADEIRA P/CORRESPONDENCIA 34X24 CM, SANFONADA</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" t="n">
         <v>23314</v>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>GRAMPEADOR DE MESA PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" t="n">
         <v>36245</v>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>GRAMPEADOR DE MESA, METÁLICO, COM ESTRUTURA REFORÇADA,  BASE ANTIDERRAPANTE, COMPRIMENTO MÍNIMO DE 18CM, CANALETA EM AÇO CROMADO, COM CAPACIDADE MÍNIMA DE CARGA DE UM PENTE DE 200 GRAMPOS TIPO 26/6 E</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" t="n">
         <v>1147</v>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" t="n">
         <v>23886</v>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>PERFURADOR DE PAPEL PARA GRANDES VOLUMES, METÁLICO, REFORÇADO, CAPACIDADE PARA PERFURAR 06MM (EQUIVAVENTE A 60 FOLHAS 75G) SEM GOLPEIO NA HASTE (SOLICITADA AMOSTRA)</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>escritório</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" t="n">
         <v>37596</v>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>CADEIRA DIRETIVA GIRATÓRIA ESPALDAR ALTO E APOIO CABEÇA - 700X930X1200-1315MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" t="n">
         <v>37597</v>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>CADEIRA OPERACIONAL GIRATÓRIA COM ESPALDAR ALTO - DIMENSÕES MÉDIAS: 700X810X970-1085MM (LXPXA); ALTURA DO ASSENTO= 450-565MM. DEMAIS ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA.</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Estofados</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" t="n">
         <v>21960</v>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>FITA ADESIVA  48MM X 50M, "TJ/RS - ARQUIVO CENTRALIZADO"</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" t="n">
         <v>16360</v>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANPARENTE 48 X 50M, IMPRESSA: "DMP/TJ - NÃO RECEBA SE A EMBALAGEM ESTIVER VIOLADA"</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" t="n">
         <v>12336</v>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE 48MM X 50M</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" t="n">
         <v>1374</v>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>APONTADOR DE LÁPIS COMUM</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" t="n">
         <v>4219</v>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>BORRACHA PARA LÁPIS</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" t="n">
         <v>24932</v>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>ESPONJEIRA MOLHA DEDO EM PASTA COM, NO MÍNIMO, 12G</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" t="n">
         <v>4738</v>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>ESTILETE COM CABO, LAMINA DE 09MM DE LARGURA</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" t="n">
         <v>27518</v>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>FITA ADESIVA TRANSPARENTE, EM ROLO DE 12MM X 30 M</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" t="n">
         <v>37467</v>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>FITA DE PAPEL KRAFT LISO, REFORÇADA PARA EMPACOTAMENTO, ALTA RESISTÊNCIA, FLEXIBILIDADE E ADERÊNCIA, LARGURA MÍNIMA DE 48MM X 50M.</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" t="n">
         <v>2045</v>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>SACO PLASTICO COM 04 FUROS</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" t="n">
         <v>8020</v>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>CANETA AZUL PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" t="n">
         <v>1387</v>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA AZUL</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" t="n">
         <v>1388</v>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA PRETA</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" t="n">
         <v>1389</v>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>CANETA ESFEROGRAFICA VERMELHA</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" t="n">
         <v>1947</v>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR AMARELA</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" t="n">
         <v>2205</v>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>CANETA LUMI COLOR VERDE</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" t="n">
         <v>9137</v>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR PRETA</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" t="n">
         <v>9138</v>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>CANETA PARA RETROPROJETOR VERMELHA</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" t="n">
         <v>4812</v>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>CANETA PRETA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" t="n">
         <v>4810</v>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>CANETA VERMELHA PARA QUADRO BRANCO DE FORMICA</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" t="n">
         <v>1532</v>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO AZUL</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" t="n">
         <v>4607</v>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>APAGADOR PARA QUADRO MAGNETICO</t>
         </is>
       </c>
-      <c r="C86" s="3" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" t="n">
         <v>1422</v>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>EXTRATOR DE GRAMPOS</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" t="n">
         <v>14968</v>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>FAIXA ELÁSTICA SERIGRAFADA (PJ-RS), COM 3,5CM DE LARGURA E 50CM DE CIRCUNFERÊNCIA</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" t="n">
         <v>3687</v>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>LACRE PARA MALOTE</t>
         </is>
       </c>
-      <c r="C89" s="3" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" t="n">
         <v>1207</v>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>ALFINETE COM CABECA COLORIDA</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" t="n">
         <v>8195</v>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>ATILHO DE BORRACHA, PACOTE</t>
         </is>
       </c>
-      <c r="C91" s="3" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" t="n">
         <v>1378</v>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>BARBANTE GROSSO, 10 FIOS, ROLO COM, NO MÍNIMO 85% ALGODÃO, PESO MÍNIMO 270G, EMBALADOS EM PACOTES COM 06 ROLOS CADA.</t>
         </is>
       </c>
-      <c r="C92" s="3" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" t="n">
         <v>24991</v>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>BOBINA DE PAPEL TÉRMICO DO TIPO TERMOSCRIPT KPH 856 AM</t>
         </is>
       </c>
-      <c r="C93" s="3" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" t="n">
         <v>26789</v>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>BRAÇADEIRA DE PLÁSTICO EM PVC CRISTAL PARA APENSAMENTO DE PROCESSOS.</t>
         </is>
       </c>
-      <c r="C94" s="3" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D94" s="3" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" t="n">
         <v>1403</v>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>CLIPS MÉDIO (2/0)</t>
         </is>
       </c>
-      <c r="C95" s="3" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" t="n">
         <v>2325</v>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>COLA EM BASTAO</t>
         </is>
       </c>
-      <c r="C96" s="3" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" t="n">
         <v>1405</v>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>COLA PLÁSTICA</t>
         </is>
       </c>
-      <c r="C97" s="3" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" t="n">
         <v>1409</v>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>COLCHETE N 09</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" t="n">
         <v>1410</v>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>COLCHETE N.º 11</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" t="n">
         <v>16826</v>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>CORDÃO PERSONALIZADO PARA USO EM CRACHÁ</t>
         </is>
       </c>
-      <c r="C100" s="3" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" t="n">
         <v>10683</v>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>DISCO CDR 700 MB</t>
         </is>
       </c>
-      <c r="C101" s="3" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" t="n">
         <v>4689</v>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>FITA ADESIVA 12MM X 33M AMARELA</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" t="n">
         <v>4690</v>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>FITA ADESIVA, AZUL, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" t="n">
         <v>27124</v>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>FITA ADESIVA, PRETA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C104" s="3" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" t="n">
         <v>2242</v>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>FITA ADESIVA, VERMELHA, PLÁSTICA, EM ROLO DE 12MM X 30M.</t>
         </is>
       </c>
-      <c r="C105" s="3" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" t="n">
         <v>15330</v>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>FITA AUTO-ADESIVA, ANTI-DERRAPANTE, PRETA, LARGURA 50 MM, ROLO 45 M</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" t="n">
         <v>17240</v>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>FITA P/ PROTOCOLADOR MARCA DIMEP MODELO HORODATADOR II E HENRY PROT, COR AZUL</t>
         </is>
       </c>
-      <c r="C107" s="3" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" t="n">
         <v>15040</v>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>FITA PARA DEMARCAÇÃO, ZEBRADA AMARELA COM PRETO, ROLO</t>
         </is>
       </c>
-      <c r="C108" s="3" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" t="n">
         <v>11117</v>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>FITA PARA RELÓGIO PROTOCOLADOR ELETRÔNICO/DIGITAL, COR AZUL, HASTE LONGA, MOD. TECNIBRA TBA 2.0 E FAREP PTR-1.</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" t="n">
         <v>15230</v>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>FITA PLÁSTICA PARA ARQUEAÇÃO 10 X 0,65 MM (PHOENIX)</t>
         </is>
       </c>
-      <c r="C110" s="3" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" t="n">
         <v>4175</v>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>FITA RAFIA (1KG)</t>
         </is>
       </c>
-      <c r="C111" s="3" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" t="n">
         <v>1457</v>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>GRAMPO 26 X 6</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" t="n">
         <v>8614</v>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>GRAMPO 9 X 10 OU 23X10 PARA GRANDES VOLUMES</t>
         </is>
       </c>
-      <c r="C113" s="3" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" t="n">
         <v>36755</v>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>LÁPIS PRETO N° 2, EM MADEIRA NATURAL  REFLORESTADA, FORMATO SEXTAVADO, APONTADO, GRAFITE RESISTENTE E ESCRITA MACIA, TRAÇO ESCURO COM EXCELENTE APAGABILIDADE, IDENTIFICAÇÃO DA MARCA E GRADUAÇÃO NO COR</t>
         </is>
       </c>
-      <c r="C114" s="3" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" t="n">
         <v>1151</v>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>MALOTE DE LONA</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" t="n">
         <v>17305</v>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>MÍDIA DE DVD GRAVÁVEL</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" t="n">
         <v>1533</v>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO PRETO</t>
         </is>
       </c>
-      <c r="C117" s="3" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" t="n">
         <v>1535</v>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>PINCEL ATOMICO VERMELHO</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" t="n">
         <v>2937</v>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>PRANCHETA</t>
         </is>
       </c>
-      <c r="C119" s="3" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" t="n">
         <v>1541</v>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>REGUA DE 30CM</t>
         </is>
       </c>
-      <c r="C120" s="3" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" t="n">
         <v>16983</v>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>RELÓGIO DE PAREDE, QUARTZO,  À PILHA, GABINETE EM PLÁSTICO</t>
         </is>
       </c>
-      <c r="C121" s="3" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>expediente</t>
         </is>
       </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" t="n">
         <v>17890</v>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>ASSENTO PLÁSTICO BRANCO, PARA VASO SANITÁRIO</t>
         </is>
       </c>
-      <c r="C122" s="3" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" t="n">
         <v>37978</v>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>CESTO DE LIXO PARA PAPÉIS, EM POLIPROPILENO, REDONDO, COR PRETA, ALTURA MÍNIMA 29 CM E DIÂMETRO MÍNIMO DE 23 CM.</t>
         </is>
       </c>
-      <c r="C123" s="3" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" t="n">
         <v>31077</v>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>LIXEIRA 15 LITROS, ACIONAMENTO COM PEDAL, COR PRETA</t>
         </is>
       </c>
-      <c r="C124" s="3" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" t="n">
         <v>36750</v>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>LIXEIRA EM PLÁSTICO POLIPROPILENO (PP), CAPACIDADE DE 25 LITROS, ACIONAMENTO POR PEDAL, SUPORTE PARA SACO DE LIXO, COR PRETA. MEDIDAS: (ALTURA) 58CM X (LARGURA) 24CM X 34CM (PROFUNDIDADE) COM VARIAÇÃO</t>
         </is>
       </c>
-      <c r="C125" s="3" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" t="n">
         <v>3428</v>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO MEDIO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C126" s="3" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" t="n">
         <v>3048</v>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>LUVA CIRÚRGICA TAMANHO PEQUENO, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C127" s="3" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" t="n">
         <v>28440</v>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>DISPENSER PARA ÁLCOOL GEL/SABONETE LÍQUIDO, EM PLÁSTICO RESISTENTE, HERMETICAMENTE FECHADO, COM FURAÇÃO PARA AFIXAÇÃO EM PAREDE, ABERTURA SUPERIOR COM SISTEMA DE ROSCA QUE DISPENSE O USO DE CHAVE PARA</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" t="n">
         <v>37287</v>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>DISPENSER PARA PAPEL INTERFOLHAS, EM MATERIAL INJETADO EM PLÁSTICO ABS BRANCO COM VISOR FRONTAL, COM CHAVE PLÁSTICA, REPOSIÇÃO DE PAPEL TOALHA 2 OU 3 DOBRAS, CAPACIDADE MÍNIMA DE 750 FOLHAS, KIT CONTE</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" t="n">
         <v>3049</v>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>LUVA CIRURGICA TAMANHO GRANDE, AMBIDESTRA, CAIXA COM 100 UNIDADES</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" t="n">
         <v>2924</v>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>LUVA DE BORRACHA, PARA LIMPEZA, TAMANHO GRANDE</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>PAR</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" t="n">
         <v>16845</v>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>MÁSCARA CIRÚRGICA, BRANCA</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" t="n">
         <v>37248</v>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>MÁSCARA REUTILIZÁVEL.</t>
         </is>
       </c>
-      <c r="C133" s="3" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" t="n">
         <v>37245</v>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>PROTETOR FACIAL INCOLOR</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" t="n">
         <v>2960</v>
       </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>SUPORTE PLÁSTICO PARA PAPEL HIGIÊNICO</t>
         </is>
       </c>
-      <c r="C135" s="3" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>hig e limp</t>
         </is>
       </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" t="n">
         <v>37793</v>
       </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA 12 A 16W, 6500K, FLUXO LUMINOSO 1300 LM OU MAIOR, SOQUETE E27, VIDA ÚTIL 25000H, GARANTIA DE 3 ANOS (DO FABRICANTE).</t>
         </is>
       </c>
-      <c r="C136" s="3" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n">
+      <c r="A137" t="n">
         <v>37792</v>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>LÂMPADA BULBO LED, POTÊNCIA DE 7,5 A 9W, 4000K, FLUXO LUMINOSO 800 LM OU MAIOR, SOQUETE</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n">
+      <c r="A138" t="n">
         <v>15566</v>
       </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>LÂMPADA DICRÓICA 50W, 12V</t>
         </is>
       </c>
-      <c r="C138" s="3" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n">
+      <c r="A139" t="n">
         <v>15560</v>
       </c>
-      <c r="B139" s="3" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE COMPACTA  PL 26W</t>
         </is>
       </c>
-      <c r="C139" s="3" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n">
+      <c r="A140" t="n">
         <v>29470</v>
       </c>
-      <c r="B140" s="3" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE COMPACTA ELETRÔNICA 20W, BASE E27, 127V, IRC&gt;80%, TEMPERATURA DE COR 6500 K, FLUXO LUMINOSO1200 LM, RENDIMENTO 59 LM/W, MANUTENÇÃO DE 75% DO FLUXO EM 5.000HORAS.MODELO DE REFERÊ</t>
         </is>
       </c>
-      <c r="C140" s="3" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n">
+      <c r="A141" t="n">
         <v>29472</v>
       </c>
-      <c r="B141" s="3" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR 20W - SOQUETE G13</t>
         </is>
       </c>
-      <c r="C141" s="3" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n">
+      <c r="A142" t="n">
         <v>1961</v>
       </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>LAMPADA FLUORESCENTE TUBULAR HO, 110W</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n">
+      <c r="A143" t="n">
         <v>29475</v>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 14W, BASE G5</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n">
+      <c r="A144" t="n">
         <v>29476</v>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T5 28W, BASE G5</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n">
+      <c r="A145" t="n">
         <v>17900</v>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 16W</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n">
+      <c r="A146" t="n">
         <v>17901</v>
       </c>
-      <c r="B146" s="3" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE TUBULAR T8 32W.</t>
         </is>
       </c>
-      <c r="C146" s="3" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n">
+      <c r="A147" t="n">
         <v>29473</v>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>LÂMPADA FLUORESCENTE, ESPIRAL, COMPACTA, ELETRÔNICA, 23 A 25W, FLUXO LUMINOSO MÍNIMO DE 1400 LM, TEMPERATURA DE COR 2700K, IRC&gt;80%, BASE E27, 127V, COMPRIMENTO MÁX; 132MM, RENDIMENTO 59LM/W, VIDA ÚTIL</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n">
+      <c r="A148" t="n">
         <v>12026</v>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>LAMPADA HALOGENA AR 70, 50W, 30 GRAUS, 12V</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n">
+      <c r="A149" t="n">
         <v>37795</v>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 18W, 4000K, FLUXO LUMINOSO 1850 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n">
+      <c r="A150" t="n">
         <v>37794</v>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>LÂMPADA LED TUBULAR, POTÊNCIA 9W, 4000K, FLUXO LUMINOSO 900 LM OU MAIOR, SOQUETE G13,</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D150" s="3" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n">
+      <c r="A151" t="n">
         <v>17915</v>
       </c>
-      <c r="B151" s="3" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>LÂMPADA VAPOR METÁLICO TUBULAR CLARA 250W, E40</t>
         </is>
       </c>
-      <c r="C151" s="3" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D151" s="3" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n">
+      <c r="A152" t="n">
         <v>953</v>
       </c>
-      <c r="B152" s="3" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA 1 LÂMPADA HO 110W T10/T12, TENSÃO DE ENTRADA 127 A 220V, BIVOLT AUTOMÁTICO</t>
         </is>
       </c>
-      <c r="C152" s="3" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D152" s="3" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n">
+      <c r="A153" t="n">
         <v>28676</v>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W A 2X35W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n">
+      <c r="A154" t="n">
         <v>27298</v>
       </c>
-      <c r="B154" s="3" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X14W, TENSÃO 220V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
         </is>
       </c>
-      <c r="C154" s="3" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n">
+      <c r="A155" t="n">
         <v>17906</v>
       </c>
-      <c r="B155" s="3" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X16W, 127V</t>
         </is>
       </c>
-      <c r="C155" s="3" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D155" s="3" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n">
+      <c r="A156" t="n">
         <v>29492</v>
       </c>
-      <c r="B156" s="3" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X20W, TENSÂO 127V</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n">
+      <c r="A157" t="n">
         <v>29493</v>
       </c>
-      <c r="B157" s="3" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V</t>
         </is>
       </c>
-      <c r="C157" s="3" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n">
+      <c r="A158" t="n">
         <v>27296</v>
       </c>
-      <c r="B158" s="3" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, 2X28W, TENSÃO 127V +/-10%, PARTIDA RÁPIDA OU INSTANTÂNEA,  FATOR DE POTÊNCIA &gt; 0,96, FATOR DE REATOR &gt; 0,99, THD MÁXIMO DE 10%. DEVE ATENDER AS NBR</t>
         </is>
       </c>
-      <c r="C158" s="3" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D158" s="3" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n">
+      <c r="A159" t="n">
         <v>29489</v>
       </c>
-      <c r="B159" s="3" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA DUAS LÂMPADAS FLUORESCENTES, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2 X 16W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 100 A 275V, PARTIDA RÁPIDA OU INSTANTÂNEA, FATOR DE POTÊNCI</t>
         </is>
       </c>
-      <c r="C159" s="3" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n">
+      <c r="A160" t="n">
         <v>26018</v>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO PARA LÂMPADAS FLUORESCENTES, 1X16W, MONOVOLT TENSÃO 127V  OU BIVOLT.</t>
         </is>
       </c>
-      <c r="C160" s="3" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D160" s="3" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n">
+      <c r="A161" t="n">
         <v>29491</v>
       </c>
-      <c r="B161" s="3" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>REATOR ELETRÔNICO, TENSÃO DE ALIMENTAÇÃO EM 220V+-10%, 2X14W, COM SISTEMA DE MULTITENSÃO PARA LÂMPADAS DE 105 A 250V</t>
         </is>
       </c>
-      <c r="C161" s="3" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>lâmpadas</t>
         </is>
       </c>
-      <c r="D161" s="3" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n">
+      <c r="A162" t="n">
         <v>27560</v>
       </c>
-      <c r="B162" s="3" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV4 600X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 4 PORTAS</t>
         </is>
       </c>
-      <c r="C162" s="3" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n">
+      <c r="A163" t="n">
         <v>27561</v>
       </c>
-      <c r="B163" s="3" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>ARMÁRIO DE AÇO MULTIUSO/VESTIÁRIO - AMV6 900X450X1820 (LARGURA X PROFUNDIDADE X ALTURA) COM 6 PORTAS.</t>
         </is>
       </c>
-      <c r="C163" s="3" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>Móveis de Aço</t>
         </is>
       </c>
-      <c r="D163" s="3" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n">
+      <c r="A164" t="n">
         <v>11628</v>
       </c>
-      <c r="B164" s="3" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>CABIDEIRO DE MADEIRA</t>
         </is>
       </c>
-      <c r="C164" s="3" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>Móveis de Madeira</t>
         </is>
       </c>
-      <c r="D164" s="3" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="n">
+      <c r="A165" t="n">
         <v>1514</v>
       </c>
-      <c r="B165" s="3" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>PAPEL A4 (PCTE 500 FOLHAS)</t>
         </is>
       </c>
-      <c r="C165" s="3" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D165" s="3" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>PACOTE</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="n">
+      <c r="A166" t="n">
         <v>24507</v>
       </c>
-      <c r="B166" s="3" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>PAPEL A4 RECICLADO</t>
         </is>
       </c>
-      <c r="C166" s="3" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D166" s="3" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>PCT</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="n">
+      <c r="A167" t="n">
         <v>33618</v>
       </c>
-      <c r="B167" s="3" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>CAIXA PARA ARQUIVO MORTO, EM PAPELÃO ONDULADO SIMPLES, SEMIKRAFT, MEDIDAS MÍNIMAS DE 35,5 X 13,5 X 24,5CM, PESO MÍNIMO DA CAIXA 200G,</t>
         </is>
       </c>
-      <c r="C167" s="3" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D167" s="3" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="n">
+      <c r="A168" t="n">
         <v>17659</v>
       </c>
-      <c r="B168" s="3" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>SENHAS DE ATENDIMENTOS DE 000 A 999, ROLO COM LARGURA 34MM</t>
         </is>
       </c>
-      <c r="C168" s="3" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D168" s="3" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="n">
+      <c r="A169" t="n">
         <v>11044</v>
       </c>
-      <c r="B169" s="3" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO ÍMPAR</t>
         </is>
       </c>
-      <c r="C169" s="3" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D169" s="3" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="n">
+      <c r="A170" t="n">
         <v>8014</v>
       </c>
-      <c r="B170" s="3" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>AGENDA PADRÃO TJ, ANO PAR</t>
         </is>
       </c>
-      <c r="C170" s="3" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D170" s="3" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="n">
+      <c r="A171" t="n">
         <v>26831</v>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>BOBINA TÉRMICA</t>
         </is>
       </c>
-      <c r="C171" s="3" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D171" s="3" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>ROLO</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="n">
+      <c r="A172" t="n">
         <v>15526</v>
       </c>
-      <c r="B172" s="3" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>ETIQUETA  ADESIVA, 99 X 55,8 MM (L X A), 10 UN POR FOLHA, CX C/ 100 FOLHAS.</t>
         </is>
       </c>
-      <c r="C172" s="3" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D172" s="3" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="n">
+      <c r="A173" t="n">
         <v>24245</v>
       </c>
-      <c r="B173" s="3" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>ETIQUETA 99 X 67,7MM (L X A), 08 UNIDADES POR FOLHA</t>
         </is>
       </c>
-      <c r="C173" s="3" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="n">
+      <c r="A174" t="n">
         <v>1484</v>
       </c>
-      <c r="B174" s="3" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE COISAS APREENDIDAS</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>LIVRO</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="n">
+      <c r="A175" t="n">
         <v>1485</v>
       </c>
-      <c r="B175" s="3" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>LIVRO REGISTRO DE MANDADOS</t>
         </is>
       </c>
-      <c r="C175" s="3" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="n">
+      <c r="A176" t="n">
         <v>4678</v>
       </c>
-      <c r="B176" s="3" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>PAPEL FLIP CHART</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="n">
+      <c r="A177" t="n">
         <v>1539</v>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>REGISTRADOR PARA OFICIO LOMBADA LARGA</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>papéis</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="n">
+      <c r="A178" t="n">
         <v>18</v>
       </c>
-      <c r="B178" s="3" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>PJ 018 ENVELOPE PARDO PEQUENO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C178" s="3" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="n">
+      <c r="A179" t="n">
         <v>20</v>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>PJ 020 ENVELOPE PARDO GRANDE- PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="n">
+      <c r="A180" t="n">
         <v>34575</v>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>ENVELOPE PARDO, EM PAPEL KRAFT, GRAMATURA MÍNIMA 80G/M2, DIMENSÕES 230 X 165MM. ACONDICIONADO EM PACOTE DE PAPEL KRAFT 80 G/M², FIBRA LONGA, RESISTENTE, ENCERADO, COM 250 UNIDADES CADA.</t>
         </is>
       </c>
-      <c r="C180" s="3" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="n">
+      <c r="A181" t="n">
         <v>1530</v>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>FICHA "NÃO" VOTAÇÃO JURADOS</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="n">
+      <c r="A182" t="n">
         <v>1061</v>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>FICHA "SIM" VOTACAO JURADOS</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="n">
+      <c r="A183" t="n">
         <v>2</v>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>PJ 002 PAPEL OFICIO SEM MARGEM</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D183" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>PJ 016 REQUISICAO DE PASSAGEM</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="n">
+      <c r="A185" t="n">
         <v>19</v>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>PJ 019 ENVELOPE BRANCO OFICIO - PODER JUDICIARIO</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="n">
+      <c r="A186" t="n">
         <v>21</v>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>PJ 021 ENVELOPE BRANCO PEQUENO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="n">
+      <c r="A187" t="n">
         <v>27</v>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>PJ 027 GUIA REMESSA CORRESPONDENCIA (P/ RELAÇÕES PÚBLICAS)</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="n">
+      <c r="A188" t="n">
         <v>35</v>
       </c>
-      <c r="B188" s="3" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>PJ 035 FICHA DE DISTRIBUICAO</t>
         </is>
       </c>
-      <c r="C188" s="3" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="n">
+      <c r="A189" t="n">
         <v>59</v>
       </c>
-      <c r="B189" s="3" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>PJ 059 CAPA PROCESSO TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C189" s="3" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D189" s="3" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="n">
+      <c r="A190" t="n">
         <v>67</v>
       </c>
-      <c r="B190" s="3" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>PJ 067 ENVELOPE PARDO MEDIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C190" s="3" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D190" s="3" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="n">
+      <c r="A191" t="n">
         <v>125</v>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>PJ 125 GUIA REMESSA PROCESSOS CAMARAS/PROCESSAMENTO</t>
         </is>
       </c>
-      <c r="C191" s="3" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D191" s="3" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="n">
+      <c r="A192" t="n">
         <v>140</v>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>PJ 140 ENVELOPE BRANCO OFICIO - TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C192" s="3" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D192" s="3" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="n">
+      <c r="A193" t="n">
         <v>156</v>
       </c>
-      <c r="B193" s="3" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>PJ 156 GUIA DE ANDAMENTO 1 PROCESSO (PORTARIA TJ)</t>
         </is>
       </c>
-      <c r="C193" s="3" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D193" s="3" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="n">
+      <c r="A194" t="n">
         <v>10158</v>
       </c>
-      <c r="B194" s="3" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>PJ 158 DESPESA CONDUÇÃO OFICIAL DE JUSTIÇA - NÃO-NUMERADO</t>
         </is>
       </c>
-      <c r="C194" s="3" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D194" s="3" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="n">
+      <c r="A195" t="n">
         <v>162</v>
       </c>
-      <c r="B195" s="3" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>PJ 162 CARTAO SURSIS</t>
         </is>
       </c>
-      <c r="C195" s="3" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D195" s="3" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="n">
+      <c r="A196" t="n">
         <v>284</v>
       </c>
-      <c r="B196" s="3" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>PJ 284 AUTO GERAL</t>
         </is>
       </c>
-      <c r="C196" s="3" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D196" s="3" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="n">
+      <c r="A197" t="n">
         <v>338</v>
       </c>
-      <c r="B197" s="3" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>PJ 338 FOLHA CORRIDA</t>
         </is>
       </c>
-      <c r="C197" s="3" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D197" s="3" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>CAIXA</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="n">
+      <c r="A198" t="n">
         <v>351</v>
       </c>
-      <c r="B198" s="3" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>PJ 351 CARTAO APRESENTACAO DO BENEFICIADO - SURSIS</t>
         </is>
       </c>
-      <c r="C198" s="3" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D198" s="3" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>UN.</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="n">
+      <c r="A199" t="n">
         <v>396</v>
       </c>
-      <c r="B199" s="3" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>PJ 396 FICHA INFORMACAO DE EXAMES TECNICOS - JIJ</t>
         </is>
       </c>
-      <c r="C199" s="3" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D199" s="3" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="n">
+      <c r="A200" t="n">
         <v>418</v>
       </c>
-      <c r="B200" s="3" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>PJ 418 FICHA ANDAMENTO CIVEL</t>
         </is>
       </c>
-      <c r="C200" s="3" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D200" s="3" t="inlineStr">
+      <c r="D200" t="inlineStr">
         <is>
           <t>FC</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="n">
+      <c r="A201" t="n">
         <v>423</v>
       </c>
-      <c r="B201" s="3" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>PJ 423 FICHA ANDAMENTO PRECATORIA</t>
         </is>
       </c>
-      <c r="C201" s="3" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D201" s="3" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="n">
+      <c r="A202" t="n">
         <v>550</v>
       </c>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>PJ 550 PEDIDO DE PREFERENCIA - PLENO</t>
         </is>
       </c>
-      <c r="C202" s="3" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D202" s="3" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="n">
+      <c r="A203" t="n">
         <v>676</v>
       </c>
-      <c r="B203" s="3" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>PJ 676 - JIJ-OS-015</t>
         </is>
       </c>
-      <c r="C203" s="3" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D203" s="3" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="n">
+      <c r="A204" t="n">
         <v>691</v>
       </c>
-      <c r="B204" s="3" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>PJ 691 CAPA DE PROCESSO MATÉRIA CÍVEL (AZUL)</t>
         </is>
       </c>
-      <c r="C204" s="3" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D204" s="3" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="n">
+      <c r="A205" t="n">
         <v>692</v>
       </c>
-      <c r="B205" s="3" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>PJ 692 CAPA DE PROCESSO MATÉRIA CRIMINAL (ROSA)</t>
         </is>
       </c>
-      <c r="C205" s="3" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D205" s="3" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="n">
+      <c r="A206" t="n">
         <v>693</v>
       </c>
-      <c r="B206" s="3" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>PJ 693 CAPA DE PROCESSO COR VERDE (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C206" s="3" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D206" s="3" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="n">
+      <c r="A207" t="n">
         <v>694</v>
       </c>
-      <c r="B207" s="3" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>PJ 694 CAPA DE PROCESSO COR AMARELA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C207" s="3" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D207" s="3" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="n">
+      <c r="A208" t="n">
         <v>695</v>
       </c>
-      <c r="B208" s="3" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>PJ 695 CAPA DE PROCESSO COR BRANCA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C208" s="3" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D208" s="3" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="n">
+      <c r="A209" t="n">
         <v>696</v>
       </c>
-      <c r="B209" s="3" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>PJ 696 CAPA DE PROCESSO COR CINZA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C209" s="3" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D209" s="3" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="n">
+      <c r="A210" t="n">
         <v>697</v>
       </c>
-      <c r="B210" s="3" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>PJ 697 CAPA DE PROCESSO COR LARANJA (DIR. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C210" s="3" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D210" s="3" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="n">
+      <c r="A211" t="n">
         <v>10251</v>
       </c>
-      <c r="B211" s="3" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>PJ 700 - ENVELOPE PARDO VAI-VEM, 240X340, TIMBRE TRIBUNAL DE JUSTICA</t>
         </is>
       </c>
-      <c r="C211" s="3" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D211" s="3" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="n">
+      <c r="A212" t="n">
         <v>11132</v>
       </c>
-      <c r="B212" s="3" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>PJ 708 PEDIDO DE ACORDAO PARA JURISPRUDENCIA</t>
         </is>
       </c>
-      <c r="C212" s="3" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D212" s="3" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="n">
+      <c r="A213" t="n">
         <v>11663</v>
       </c>
-      <c r="B213" s="3" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>PJ 719 - RELATORIO DE ENTREGA DAS GUIAS DE CONDUCAO</t>
         </is>
       </c>
-      <c r="C213" s="3" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D213" s="3" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="n">
+      <c r="A214" t="n">
         <v>12118</v>
       </c>
-      <c r="B214" s="3" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>PJ 721 BLOCO DE PUBLICACOES</t>
         </is>
       </c>
-      <c r="C214" s="3" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D214" s="3" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="n">
+      <c r="A215" t="n">
         <v>12332</v>
       </c>
-      <c r="B215" s="3" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>PJ 722 FICHA CADASTRAL</t>
         </is>
       </c>
-      <c r="C215" s="3" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D215" s="3" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="n">
+      <c r="A216" t="n">
         <v>16975</v>
       </c>
-      <c r="B216" s="3" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>PJ 728 CAPA DE PROCESSO - AGRAVOS (DEP. PROCESSUAL)</t>
         </is>
       </c>
-      <c r="C216" s="3" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D216" s="3" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="n">
+      <c r="A217" t="n">
         <v>17252</v>
       </c>
-      <c r="B217" s="3" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>PJ 730 SOLICITAÇÃO DE CÓPIAS</t>
         </is>
       </c>
-      <c r="C217" s="3" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D217" s="3" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="n">
+      <c r="A218" t="n">
         <v>17667</v>
       </c>
-      <c r="B218" s="3" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>PJ 731 CAPA DE PROCESSO THEMIS ADMIN</t>
         </is>
       </c>
-      <c r="C218" s="3" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D218" s="3" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="n">
+      <c r="A219" t="n">
         <v>22071</v>
       </c>
-      <c r="B219" s="3" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>PJ 731B CAPA DE PROCESSO THEMIS ADMIN, EM CARTOLINA 240G NA COR VERDE, COM DIMENSÕES, VINCAGEM E FURAÇÃO SIMILARES À CAPA PJ 059</t>
         </is>
       </c>
-      <c r="C219" s="3" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D219" s="3" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="n">
+      <c r="A220" t="n">
         <v>508</v>
       </c>
-      <c r="B220" s="3" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>PJ-508 - CARTAO MARCACAO DE CONSULTAS, EM PAPEL AMARELO OURO 180 G/M², IMPRESSÃO EM TINTA OFF-SET PRETA, 1X0, FORMATO 6,5X9CM, CONFORME MODELO. ACONDICIONADAS EM PACOTES DE PAPEL KRAFT 80 G/M², FIBRA</t>
         </is>
       </c>
-      <c r="C220" s="3" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D220" s="3" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>FOLHA</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="n">
+      <c r="A221" t="n">
         <v>24901</v>
       </c>
-      <c r="B221" s="3" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>PJ-732 - FORMULÁRIO PARA USO DA DISTRIBUIÇÃO DO FORO, NO FORMATO 17,5X7,4CM.</t>
         </is>
       </c>
-      <c r="C221" s="3" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Pjs</t>
         </is>
       </c>
-      <c r="D221" s="3" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>BLOCO</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="n">
+      <c r="A222" t="n">
         <v>4963</v>
       </c>
-      <c r="B222" s="3" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>TOGA PARA DESEMBARGADOR E JUIZ, SOB MEDIDA OU, EM TAMANHOS DIVERSOS.</t>
         </is>
       </c>
-      <c r="C222" s="3" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>uniformes</t>
         </is>
       </c>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>UN</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4911,8 +4922,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="16.7109375" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4928,19 +4939,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Tramandaí</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>15º dia útil</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4950,7 +4961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4958,20 +4969,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="70" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="13.140625" customWidth="1" min="2" max="2"/>
+    <col width="15.85546875" customWidth="1" min="3" max="3"/>
+    <col width="19.140625" customWidth="1" min="4" max="4"/>
+    <col width="36.140625" customWidth="1" min="5" max="5"/>
+    <col width="18.28515625" customWidth="1" min="6" max="6"/>
+    <col width="16.42578125" customWidth="1" min="7" max="7"/>
+    <col width="12.28515625" customWidth="1" min="8" max="8"/>
+    <col width="39.42578125" customWidth="1" min="9" max="9"/>
+    <col width="14.85546875" customWidth="1" min="10" max="10"/>
+    <col width="69.28515625" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="42.7109375" customWidth="1" min="13" max="13"/>
+    <col width="23.7109375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5017,101 +5028,111 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Comarca</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Unidade</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Local</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Local.1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TITULAR</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>INTERESSE NO LEILÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PADRÃO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRAMANDAÍ </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>453577</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>13/04/2022</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>10/10/2022</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>RELÓGIO DE PONTO CONTROLID IDCLASS BIO</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>1101.48</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" t="n">
         <v>1449</v>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRAMANDAÍ </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>EXTRAJUDICIAIS</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Serviço Notarial e Registral de Imbé (TN, TP, RCPN, RCPJ, RTD)(0684)</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" t="n">
         <v>684</v>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Andrei Pagnoncelli</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Padrão Extras</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5129,8 +5150,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="29.42578125" customWidth="1" min="1" max="1"/>
+    <col width="69.5703125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5146,19 +5167,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Serviço Notarial e Registral de Imbé (TN, TP, RCPN, RCPJ, RTD)(0684)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5176,9 +5197,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="31.28515625" customWidth="1" min="1" max="1"/>
+    <col width="53.5703125" customWidth="1" min="2" max="2"/>
+    <col width="22.7109375" customWidth="1" min="3" max="3"/>
+    <col width="12.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5189,170 +5211,170 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MEMBRO</t>
+          <t>NOME COMPLETO</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CAPACITADO</t>
+          <t>CAPACITADO?</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Liliane do Amaral De Freitas</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Janaína Souza Vargas</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Vitor Luis da Rosa Munhoz</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Francisco Hagy Frantzeski Júnior</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mariane Kegler Vega</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zilda Ribeiro de Barros  </t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zilda Ribeiro de Barros</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anderson Pereira dos Santos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Joize da Silveira Airoldi</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>NÃO</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Anderson Pereira dos Santos</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tramandaí </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lisandra Santos Maciel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>TRAMANDAÍ</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Lisandra Santos Maciel</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>SIM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5370,19 +5392,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="21" customWidth="1" min="7" max="7"/>
-    <col width="21" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="17" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="30.28515625" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19.42578125" customWidth="1" min="3" max="3"/>
+    <col width="17.28515625" customWidth="1" min="4" max="4"/>
+    <col width="34.28515625" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="15.7109375" customWidth="1" min="8" max="8"/>
+    <col width="20.5703125" customWidth="1" min="9" max="9"/>
+    <col width="22.85546875" customWidth="1" min="10" max="10"/>
+    <col width="16.140625" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="21.140625" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5443,7 +5465,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">TEMPO TOTAL </t>
+          <t>TEMPO TOTAL</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -5453,482 +5475,472 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Tramandaí</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>8.2021.0184/000089-2</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EDITAL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Prefeitura Municipal de Capão da Canoa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="J2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>CONCLUÍDO</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>EDITAL</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Prefeitura Municipal de Capão da Canoa</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="L2" t="n">
+        <v>958</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8.2025.4679/000005-9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Prefeitura de Tramandaí</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>MOBILIÁRIO</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>44425</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G3" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CONCLUÍDO</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>140</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8.2023.4679/000115-0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Secretaria da Segurança - Brigada</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CONCLUÍDO</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>256</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8.2024.4679/000040-0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Instituto Estadual de Educação Barão de Tramandaí</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>45412</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="H5" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CONCLUÍDO</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>119</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8.2024.4679/000032-0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Entrega Parcial</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Progama de Auxílio Comunitário Terapêutico de DMP - Segundo Grau-RS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="H6" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="J6" t="n">
+        <v>257</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>COMARCA</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8.2025.4679/000004-0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Entrega Parcial</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prefeitura de Cidreira</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>COMARCA</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8.2024.4679/000031-1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrega Parcial</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Marinha do Brasil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="J8" t="n">
         <v>63</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>958</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>COMARCA</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tramandaí</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8.2024.4679/000041-9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Entrega Parcial</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DIRETA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Delegacia de Policia de Tramandaí</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MOBILIÁRIO</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>45412</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="H9" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="J9" t="n">
+        <v>92</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>COMARCA</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>45751</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Tramandaí</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>8.2025.4679/000005-9</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8.2024.4679/000033-8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Entrega Parcial</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>DIRETA</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Prefeitura de Tramandaí</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Delegacia de Policia de Cidreira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>MOBILIÁRIO</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>45674</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>45814</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>45814</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>140</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>45814</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>8.2023.4679/000115-0</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Secretaria da Segurança - Brigada</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>45267</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>45379</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>45523</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>256</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>45523</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>8.2024.4679/000040-0</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Instituto Estadual de Educação Barão de Tramandaí</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>45412</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>45433</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>45531</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>CONCLUÍDO</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>119</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>8.2024.4679/000032-0</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Entrega Parcial</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Progama de Auxílio Comunitário Terapêutico de Porto Alegre-RS</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="n">
+      <c r="G10" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>45443</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr"/>
-      <c r="J6" s="3" t="n">
-        <v>257</v>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="H10" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="J10" t="n">
+        <v>130</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>COMARCA</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="4" t="n">
-        <v>45597</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>8.2025.4679/000004-0</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Entrega Parcial</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Prefeitura de Cidreira</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>45673</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>45693</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr"/>
-      <c r="J7" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>COMARCA</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
-        <v>45749</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>8.2024.4679/000031-1</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Entrega Parcial</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Marinha do Brasil</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>45412</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>45433</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr"/>
-      <c r="J8" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>COMARCA</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
-        <v>45750</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>8.2024.4679/000041-9</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>Entrega Parcial</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Delegacia de Policia de Tramandaí</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>45412</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>45567</v>
-      </c>
-      <c r="I9" s="3" t="inlineStr"/>
-      <c r="J9" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>COMARCA</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr"/>
-      <c r="M9" s="4" t="n">
-        <v>45751</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Tramandaí</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>8.2024.4679/000033-8</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Entrega Parcial</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>DIRETA</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Delegacia de Policia de Cidreira</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>MOBILIÁRIO</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>45383</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>45437</v>
-      </c>
-      <c r="I10" s="3" t="inlineStr"/>
-      <c r="J10" s="3" t="n">
-        <v>130</v>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>COMARCA</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="2" t="n">
         <v>45789</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5938,7 +5950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5946,13 +5958,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="36.5703125" customWidth="1" min="1" max="1"/>
+    <col width="15.42578125" customWidth="1" min="2" max="2"/>
+    <col width="37.85546875" customWidth="1" min="3" max="3"/>
+    <col width="14.140625" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="9.85546875" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="43.42578125" customWidth="1" min="8" max="8"/>
+    <col width="27.85546875" customWidth="1" min="9" max="9"/>
+    <col width="39.7109375" customWidth="1" min="10" max="10"/>
+    <col width="13.5703125" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5991,1498 +6007,2436 @@
           <t>TCA</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>descricaoPredio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>descricaoUnidade</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>descricaoLocal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>codigoLocal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" t="n">
         <v>387963</v>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>MESA DE MADEIRA 130 X 70 X 74CM - 03 GAVETAS, (PREDIO 02)REVESTIDO EM FORMICA NA COR CASCA DE OVO SEM BRILHO, LAMINADO DE MADEIRA LOURO FREIJO, MARCA TAPEJARA.</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" t="n">
         <v>163.9</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" t="n">
         <v>16.39</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>12901</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" t="n">
         <v>189432</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>ESTANTE DE ACO COM 7 PRATELEIRASMEDINDO 1980X920X440, NA COR CINZA,MARCA JOLEX</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" t="n">
         <v>64.75</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" t="n">
         <v>6.48</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" t="n">
         <v>189427</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ESTANTE DE ACO COM 7 PRATELEIRASNA COR CINZA, MED. 198 X 92 X 44 CM, MARCA JOLEX</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" t="n">
         <v>70.8</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" t="n">
         <v>7.08</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" t="n">
         <v>100566</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Cadeira estofada fixa, estofamento do assento e do encosto em espuma injetada com, no mínimo, 50mm de espessura e densidade mínima de 45, com respiro e indeformável, moldado sobre base de compensado multilaminado em formato anatômico; dimensões do assento de 470mmx470mm (LxP) e do encosto de 420mmx450mm (LxA); revestimento em couro sintético reforçado na cor preto liso (sem costuras), colado, com proteção das bordas de acabamento do assento e do encosto  em material polimérico tipo macho-fêmea; encosto interligado ao assento por meio de chapa de aço retangular reforçada 3"x5/16" revestida em poliuretano injetado; base em aço tubular de 1" (diâmetro 25mm, parede 1,9mm), em "S" (com balanço), provida de 04 sapatas deslizadoras, pintura industrial na cor preta; estrutura fixada ao assento por 04 parafusos sextavados com porca-garra; assento com acabamento na parte inferior em 100% polipropileno. Garantia mínima de 05 anos, contra defeitos de fabricação.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" t="n">
         <v>90</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - ÁREA DE CIRCULAÇÃO/SALA LIMPEZA - 4º ANDAR</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>18082</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" t="n">
         <v>124256</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Balcão (módulo 2), dimensões 80 x 110 x 45cm, para atendimento ao público, com duas prateleiras internas reguláveis na altura de 8 em 8cm. Em madeira Louro-frejó, tampo com revestimento em laminado melamínico texturizado cor ovo, com encabeçamento em madeira Louro-frejó. Demais medidas e especificações conforme projeto (prancha......).</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" t="n">
         <v>1092</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" t="n">
         <v>109.2</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>25</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA DOS OFICIAIS DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" t="n">
         <v>138852</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA);  prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura  industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" t="n">
         <v>137.9</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" t="n">
         <v>13.79</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" t="n">
         <v>30</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - ÁREA DE CIRCULAÇÃO/SALA LIMPEZA - 5º ANDAR</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>18081</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" t="n">
         <v>138580</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Condicionador de ar, tipo Split, Unidade Evaporadora, RPK-2, 3FSGM-220V, 60Hz</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" t="n">
         <v>1458</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
         <v>145.8</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" t="n">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - ÁREA DE CIRCULAÇÃO/SALA LIMPEZA - 5º ANDAR</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>18081</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" t="n">
         <v>167272</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Monitor CRT; 15"; semi-plano; anti-reflexo/anti-estática</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" t="n">
         <v>600</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" t="n">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>10</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CPD</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>18079</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" t="n">
         <v>383489</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Monitor LCD 23" widescreen; Dell P2314H</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" t="n">
         <v>680</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" t="n">
         <v>68</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - TÉRREO - sala 102</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>18085</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" t="n">
         <v>504950</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Cadeira giratória com rodízios (administrativa operacional), espaldar médio, com assento, encosto e braços reguláveis Encosto: Altura 510 mm; Largura 445 mm; Assento: Profundidade 460 mm; Largura 470 mm; Altura do assento em relação ao piso: 440 mm mínimo e 530 mm máximo.</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" t="n">
         <v>593.27</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" t="n">
         <v>291.35</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" t="n">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA DOS OFICIAIS DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" t="n">
         <v>504957</v>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Cadeira giratória com rodízios (administrativa operacional), espaldar médio, com assento, encosto e braços reguláveis Encosto: Altura 510 mm; Largura 445 mm; Assento: Profundidade 460 mm; Largura 470 mm; Altura do assento em relação ao piso: 440 mm mínimo e 530 mm máximo.</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" t="n">
         <v>593.27</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" t="n">
         <v>291.35</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" t="n">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>8.2023.7191/000350-3</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA DOS OFICIAIS DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" t="n">
         <v>189064</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>MESA PARA MICROCOMPUTADOR 90 X 70 X 74CM EM MADEIRA 40KGMARCA TAPEJARA,COR CASCA DE OVO</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" t="n">
         <v>168</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" t="n">
         <v>16.8</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DOS SEGURANÇAS - 105</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>17074</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" t="n">
         <v>23409</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Armário de aço cinza c/2 portas 90x45x198</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" t="n">
         <v>196</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" t="n">
         <v>19.6</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" t="n">
         <v>60</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DOS SEGURANÇAS - 105</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>17074</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" t="n">
         <v>120313200</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>MESA PARA IMPRESSORA, COM DOIS TAMPOS EM REVESTIMENTO MELAMINICO NA COR BRANCA NEVE OU ARGILA, SAPATAS NIVELADORAS COM SOLA DE NYLON, PERNAS EM TUBO DE FERRO, LIGADAS ENTRE SI POR TRAVESSA DE REFORCO. CESTO PARA COLETA DE FORMULARIO CONTINUO, TRATAMENTO ANTI-FERRUGINOSO E ANTI-CORROSIVO, PINTURA EPOXI ELETROSTATICA, MEDIDAS APROXIMADAS DE 65 CM X 45 CM X 75 CM (L.P.A.)MESA PARA IMPRESSORA 58X40X74 MARCAMEBELFLEX</t>
         </is>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" t="n">
         <v>24.12</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" t="n">
         <v>2.41</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" t="n">
         <v>12</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - ÁREA DE CIRCULAÇÃO - TÉRREO</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>17573</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" t="n">
         <v>189609</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>MESA DE MADEIRA DE MICROCOMPUTADOR PARA GABINETE 100 X 70 X 74CMREVESTIDO EM FORMICA NA COR CASCA DE OVO SEM BRILHO, LAMINADO DE MADEIRA LOURO FREIJO, MARCA TAPEJARA.</t>
         </is>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" t="n">
         <v>149.6</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" t="n">
         <v>14.96</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DOS SEGURANÇAS - 105</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>17074</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" t="n">
         <v>387940</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>CADEIRA ESTOFADA FIXAPRETA, COM ESTRUTURA CROMADA</t>
         </is>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" t="n">
         <v>36</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" t="n">
         <v>3.6</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DOS SEGURANÇAS - 105</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>17074</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" t="n">
         <v>720409000</v>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>CADEIRA ESTOFADA FIXAC/ ESTRUTURA CROMADA,PRETA</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" t="n">
         <v>36</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" t="n">
         <v>3.6</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - ÁREA DE CIRCULAÇÃO - TÉRREO</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>17573</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" t="n">
         <v>189632</v>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>CADEIRA ESTOFADA FIXASEM BRACOS,REVESTIDA EM COURVIN PRETO, ESTRUTURA EM ACO CROMADO, MARCAELITE</t>
         </is>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" t="n">
         <v>36</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" t="n">
         <v>3.6</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" t="n">
         <v>387942</v>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>CADEIRA ESTOFADA FIXASEM BRACOS,REVESTIDO EM COURVIM PRETO,ESTRUTURA EM ACO CROMADO ,MARCA ESTIL</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" t="n">
         <v>36</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" t="n">
         <v>3.6</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" t="n">
         <v>6</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DE TELEFONIA</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>11152</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" t="n">
         <v>189302</v>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>MESA DE MADEIRA PARA TELEFONECOM ESTRUTURA EM PRETO FOSCO, MODELO MT-FMI-1, HUMAITA</t>
         </is>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" t="n">
         <v>45</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" t="n">
         <v>4.5</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CÍVEL - COPA/COZINHA </t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>10288</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" t="n">
         <v>189398</v>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>MESA PARA IMPRESSORA/TELEFONE, 50 X 50 X 74CM, COM DUAS PRATELEIRAS INTERNAS REGULAVEIS E LATERAIS EM AGLOMERADO DE 2CM DE ESPESSURA, LAMINADO INTERNA E EXTERNAMENTE EM LOURO FREIJO CLARO, E PAINEL FRONTAL, ESTE REVESTIDO EXTERNAMENTE EM FORMICA NA COR CASCA DE OVO SEM BRILHO, RECUADO EM 5CM, TAMPO REVESTIDO EM FORMICA NA COR CASCA DE OVO SEM BRILHO, ACABAMENTO DO LAMINADO COM SELADOR INCOLOR, APOIADA SOBRE SAPATAS DESLIZADORAS REGULAVEIS</t>
         </is>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" t="n">
         <v>189</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" t="n">
         <v>18.9</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" t="n">
         <v>15</v>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - ÁREA DE CIRCULAÇÃO - TÉRREO</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>17573</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" t="n">
         <v>37159</v>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Impressora jato de tinta; 11ppm; 600x600dpi; bandeja 100 folhas; interfaces USB e paralela; cartuchos: preto HP 45 (51645) e colorido HP 78 (C6578)</t>
         </is>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" t="n">
         <v>832</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" t="n">
         <v>83.2</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CRIME - ASSISTENTE SOCIAL </t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>17075</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" t="n">
         <v>84600</v>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Armário aéreo fechado de madeira, 1,20m de comprimento com 03 portas.</t>
         </is>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" t="n">
         <v>212.97</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" t="n">
         <v>21.3</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" t="n">
         <v>20</v>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CRIME - COPA/COZINHA </t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>12200</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" t="n">
         <v>85096</v>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Armário aéreo fechado de madeira, 1,60m de comprimento com 04 portas.</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" t="n">
         <v>263.5</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" t="n">
         <v>26.35</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CRIME - COPA/COZINHA </t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>12200</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" t="n">
         <v>84598</v>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">Armário aéreo fechado, 800x440x1600mm, com 02 portas e 03 prateleiras. 
 </t>
         </is>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" t="n">
         <v>114.08</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" t="n">
         <v>11.41</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" t="n">
         <v>15</v>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CRIME - COPA/COZINHA </t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>12200</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" t="n">
         <v>124197</v>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Balcão (módulo 3), dimensões 60 x 110 x 45cm, para atendimento ao público, com duas prateleiras internas reguláveis na altura de 8 em 8 cm, confeccionado em madeira louro-freijó, tampo com revestimento em laminado melamínico texturizado cor ovo, com encabeçamento em madeira louro-freijó. Demais medidas e especificações conforme projeto (prancha .......).</t>
         </is>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" t="n">
         <v>1008</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" t="n">
         <v>100.8</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" t="n">
         <v>30</v>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA DOS OFICIAIS DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" t="n">
         <v>127367</v>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Superfície Angular SA150, 1500x700x1500x600mm/730mm, c/ pedestais em aço dobrado ou estampado - Especificações conforme item</t>
         </is>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" t="n">
         <v>603.1</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" t="n">
         <v>60.31</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" t="n">
         <v>40</v>
       </c>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>PROJETO REGULARIZAÇÃO FUNDIÁRIA - SALA 500 - LOCAL PROVISÓRIO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>20242</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" t="n">
         <v>137592</v>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Superfície Retangular SR6T, 1000x700x730mm, c/ suporte p/ teclado - Especificações conforme item</t>
         </is>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" t="n">
         <v>447.03</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" t="n">
         <v>44.7</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" t="n">
         <v>25</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>PROJETO REGULARIZAÇÃO FUNDIÁRIA - SALA 500 - LOCAL PROVISÓRIO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>20242</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" t="n">
         <v>137939</v>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Superfície Angular SA140, 1400x700x1400x600mm/730mm, c/ gaveteiro fixo, c/ pedestais em aço dobrado ou estampado - Especificações conforme item</t>
         </is>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" t="n">
         <v>860</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" t="n">
         <v>86</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" t="n">
         <v>40</v>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - TÉRREO - sala 102</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>18085</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" t="n">
         <v>138826</v>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA);  prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura  industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
         </is>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" t="n">
         <v>137.9</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" t="n">
         <v>13.79</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - 2ª VARA CRIMINAL / JIJ</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ARQUIVO</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>12199</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" t="n">
         <v>138883</v>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA);  prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura  industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
         </is>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" t="n">
         <v>137.9</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" t="n">
         <v>13.79</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - 2ª VARA CRIMINAL / JIJ</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ARQUIVO</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>12199</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" t="n">
         <v>138897</v>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Estante de aço com 07 prateleiras, dimensões: 920mmx440mmx1980mm (LxPxA);  prateleiras em chapa MSG n.° 22, reguláveis, reforço em ômega de no mínimo 7cm de largura e em toda a extensão de cada prateleira, colunas de abas iguais de 40mmx40mm em chapa MSG n.° 14, perfuradas de 50 em 50mm, com reforço em "X" de chapa MSG n.° 16, nas laterais e fundo, capacidade de 85kg distribuídos em cada prateleira, acabamento com fundo anticorrosivo e pintura  industrial na cor cinza claro; as prateleiras devem ser embaladas de 7 em 7 e as colunas de 4 em 4, acompanhadas das porcas e parafusos de cabeça sextavada de 7/16" (sete dezesseis avos de polegada.</t>
         </is>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" t="n">
         <v>137.9</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" t="n">
         <v>13.79</v>
       </c>
-      <c r="F33" s="3" t="n">
+      <c r="F33" t="n">
         <v>30</v>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" t="n">
         <v>138504</v>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Conjunto de 04 cadeiras para espera sobre longarina: cadeiras tipo concha única fabricadas em plástico reforçado com fibra de vidro pelo processo S.M.C., com propriedades atóxicas, cor bege, fixadas à longarina por meio de parafusos com cabeça sextavada; estrutura metálica composta de longarina, colunas e pés: longarina e colunas em aço carbono SAE 1010 ou 1020 com seção retangular mínima 30mmx50mm e parede  com espessura mínima 1,7mm; pés horizontais metálicos em aço carbono 1010 ou 1020 com seção retangular mínima 30mmx40mm e espessura mínima de parede de 1,7mm, ou similar; pintura industrial tipo epóxi, cor preta; sapatas de apoio e ponteiras de acabamento em material polimérico. Garantia mínima de 05 anos, contra defeitos de fabricação, incluso troca de concha em caso de eventuais quebras nesse período. Dimensões mínimas da concha: 410x370x370 (larg. x alt. x prof.).</t>
         </is>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" t="n">
         <v>625</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" t="n">
         <v>62.5</v>
       </c>
-      <c r="F34" s="3" t="n">
+      <c r="F34" t="n">
         <v>40</v>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - TÉRREO - sala 102</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>18085</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" t="n">
         <v>138531</v>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Conjunto de 04 cadeiras para espera sobre longarina: cadeiras tipo concha única fabricadas em plástico reforçado com fibra de vidro pelo processo S.M.C., com propriedades atóxicas, cor bege, fixadas à longarina por meio de parafusos com cabeça sextavada; estrutura metálica composta de longarina, colunas e pés: longarina e colunas em aço carbono SAE 1010 ou 1020 com seção retangular mínima 30mmx50mm e parede  com espessura mínima 1,7mm; pés horizontais metálicos em aço carbono 1010 ou 1020 com seção retangular mínima 30mmx40mm e espessura mínima de parede de 1,7mm, ou similar; pintura industrial tipo epóxi, cor preta; sapatas de apoio e ponteiras de acabamento em material polimérico. Garantia mínima de 05 anos, contra defeitos de fabricação, incluso troca de concha em caso de eventuais quebras nesse período. Dimensões mínimas da concha: 410x370x370 (larg. x alt. x prof.).</t>
         </is>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" t="n">
         <v>625</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" t="n">
         <v>62.5</v>
       </c>
-      <c r="F35" s="3" t="n">
+      <c r="F35" t="n">
         <v>40</v>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - TÉRREO - sala 102</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>18085</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" t="n">
         <v>139645</v>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Balcão (módulo 1), dimensões 100 x 110 x 45cm, para atendimento ao público</t>
         </is>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" t="n">
         <v>140</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" t="n">
         <v>14</v>
       </c>
-      <c r="F36" s="3" t="n">
+      <c r="F36" t="n">
         <v>20</v>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA 104</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>32303</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" t="n">
         <v>387971</v>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Balcão tipo coluna aberta, dimensões 45x110x45cm</t>
         </is>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" t="n">
         <v>150</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" t="n">
         <v>15</v>
       </c>
-      <c r="F37" s="3" t="n">
+      <c r="F37" t="n">
         <v>15</v>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA 104</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>32303</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" t="n">
         <v>157152</v>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>CONDICIONADOR DE AR 21000 BTU'S tensão 220V, com ciclo reverso (quente/frio), serpentina evaporadora, condensadora aletada e gabinete deslizante</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" t="n">
         <v>2086</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" t="n">
         <v>208.6</v>
       </c>
-      <c r="F38" s="3" t="n">
+      <c r="F38" t="n">
         <v>60</v>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - DEPÓSITO - SÓTÃO - 6º andar-depósito</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>17077</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" t="n">
         <v>236651</v>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Cadeira estofada giratória com apóia-braços para digitador, estofamento do assento e do encosto com espuma injetada, com respiro e indeformável, revestimento em couro sintético reforçado, cor preta, formato liso, sem  costuras, com proteção de material polimérico de alto impacto tipo macho e fêmea no assento e contracapa injetada com proteção polimérico de alto impacto tipo macho e fêmea no encosto; dimensões do assento de 460x 460mm (LxP) e do encosto de 420x300mm (LxA); apóia-braços, medindo 75x250mm ( LxC), com, no mínimo, 5 (cinco) regulagens de altura, fixados sob o assento com 03 para fusos sextavados com porca-garra; base giratória 100% nylon, estrela com 05 pés, de acordo com NBR 13962, com rodízios tipo Baseflex PU de duplo giro, cor cinza, "h" 63mm, eixo em aço endurecido e pinos de segurança para garantir durabilidade; tubo central com pistão pneumático a gás, com capa protetora, encosto interligado ao assento por tubo com capa protetora; assento com regulagens de inclinação e altura; encosto com regulagens de inclinação e altura. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação</t>
         </is>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" t="n">
         <v>185</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" t="n">
         <v>18.5</v>
       </c>
-      <c r="F39" s="3" t="n">
+      <c r="F39" t="n">
         <v>15</v>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DE AUDIÊNCIAS - MULTIUSO - TÉRREO</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>17076</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" t="n">
         <v>288745</v>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Notebook Dell Latitude E6420; Intel Core i7 2620M; 14'; RAM 8GB; HDD 320GB; Fingerprint; Leitor cartões smartcard; DVD-RW; Wi-Fi e Bluetooth; maleta, fonte e mouse óptico.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" t="n">
         <v>3518.22</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" t="n">
         <v>351.82</v>
       </c>
-      <c r="F40" s="3" t="n">
+      <c r="F40" t="n">
         <v>5</v>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" t="n">
         <v>327616</v>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragmentadora de papéis de médio porte com capacidade para fragmentar papéis, cartões, disquetes, Cds, clips e grampos. Nível de segurança 3, fragmentação mínima de 25 folhas de 75g/m² por inserção, abertura de inserção mínima de 255mm, sensor eletrônico para início da fragmentação e sensores de segurança para sobrecarga de motor, porta aberta e cesto cheio. Funcionamento contínuo sem paradas para resfriamento, com tração de alta resistência e engrenagens metálicas. Cilindros maciços de corte e pentes raspadores metálicos. Nível de ruído máximo de 65dB, e cesto de, no mínimo, 49 litros. Bivolt ou modelo disponível em 110v e 220v, conforme solicitação, para atendimento de acordo com voltagem local.
 </t>
         </is>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" t="n">
         <v>4895</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" t="n">
         <v>489.5</v>
       </c>
-      <c r="F41" s="3" t="n">
+      <c r="F41" t="n">
         <v>80</v>
       </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" t="n">
         <v>336152</v>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Módulo de Balcão de Atendimento - BA80, 800x500x1100mm.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" t="n">
         <v>508</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" t="n">
         <v>50.8</v>
       </c>
-      <c r="F42" s="3" t="n">
+      <c r="F42" t="n">
         <v>55</v>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" t="n">
         <v>319866</v>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Microcomputador Intel Core i7-3770 3,4GHz; RAM 2x4GB; HD 500GB</t>
         </is>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" t="n">
         <v>3286.78</v>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" t="n">
         <v>328.68</v>
       </c>
-      <c r="F43" s="3" t="n">
+      <c r="F43" t="n">
         <v>5</v>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>12901</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" t="n">
         <v>341039</v>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Cadeira estofada giratória com apoia-braços para digitador, estofamento do assento e do encosto com espuma injetada, com respiro e indeformável, revestimento em couro sintético reforçado, cor preta, formato liso, sem  costuras, com proteção de material polimérico de alto impacto tipo macho e fêmea no assento e contracapa injetada com proteção polimérico de alto impacto tipo macho e fêmea no encosto; dimensões do assento de 460x 460mm (LxP) e do encosto de 420x300mm (LxA); apóia-braços, medindo 75x250mm ( LxC), com, no mínimo, 5 (cinco) regulagens de altura, fixados sob o assento com 03 para fusos sextavados com porca-garra; base giratória 100% nylon, estrela com 05 pés, de acordo com NBR 13962, com rodízios tipo Baseflex PU de duplo giro, cor cinza, "h" 63mm, eixo em aço endurecido e pinos de segurança para garantir durabilidade; tubo central com pistão pneumático a gás, com capa protetora, encosto interligado ao assento por tubo com capa protetora; assento com regulagens de inclinação e altura; encosto com regulagens de inclinação e altura. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" t="n">
         <v>221</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" t="n">
         <v>22.1</v>
       </c>
-      <c r="F44" s="3" t="n">
+      <c r="F44" t="n">
         <v>12</v>
       </c>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - 2ª VARA CRIMINAL / JIJ</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ARQUIVO</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>12199</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" t="n">
         <v>341045</v>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Cadeira estofada giratória com apoia-braços para digitador, estofamento do assento e do encosto com espuma injetada, com respiro e indeformável, revestimento em couro sintético reforçado, cor preta, formato liso, sem  costuras, com proteção de material polimérico de alto impacto tipo macho e fêmea no assento e contracapa injetada com proteção polimérico de alto impacto tipo macho e fêmea no encosto; dimensões do assento de 460x 460mm (LxP) e do encosto de 420x300mm (LxA); apóia-braços, medindo 75x250mm ( LxC), com, no mínimo, 5 (cinco) regulagens de altura, fixados sob o assento com 03 para fusos sextavados com porca-garra; base giratória 100% nylon, estrela com 05 pés, de acordo com NBR 13962, com rodízios tipo Baseflex PU de duplo giro, cor cinza, "h" 63mm, eixo em aço endurecido e pinos de segurança para garantir durabilidade; tubo central com pistão pneumático a gás, com capa protetora, encosto interligado ao assento por tubo com capa protetora; assento com regulagens de inclinação e altura; encosto com regulagens de inclinação e altura. De acordo com a Portaria n.º 3751/90, NR-17-ERGONOMIA, do Ministério do Trabalho e Previdência Social. Garantia mínima de 05 anos contra defeitos de fabricação.</t>
         </is>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" t="n">
         <v>221</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" t="n">
         <v>22.1</v>
       </c>
-      <c r="F45" s="3" t="n">
+      <c r="F45" t="n">
         <v>12</v>
       </c>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - PROTOCOLO</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>12901</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" t="n">
         <v>365061</v>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Kit de rádio comunicador digital composto por 01 Rádio Digital; 01 Clip de cinto; 01 Carregador rápido; 01 Bandeja de carregamento; 01bateria do tipo Li-Ion padrão; 01 Guia de referência rápida; 01 Manual do usuário em CD; O rádio digital, banda ISM de 900 MHz, livre de licença da Anatel, potência de 1-W, transmissão por salto de frequência (FHSS) com 50 grupos não sobrepostos, espaçamento de canais de 50 KHz, com alerta vibratório, capacidade de até 25 mensagens de dados, com recebimento e envio de mensagens de texto SMS baseada em software, alcance de 4 a 5 Km; Bateria recarregável de Li-Ion (Lítio) de alta capacidade (1500mAh 3.6V) com duração, no mínimo 19 hs de vida útil por carga completa; carregador rápido que efetue a recarga total em no máximo 1 hora; Clip de cinto próprio do modelo para fixação junto ao corpo; Fone de ouvido com microfone e PTT - Fone de ouvido com fixação externa a orelha e dispositivo PPT para ativação do microfone. Marca Referência: Motorola - Modelo DTR620 ou similar.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" t="n">
         <v>1221.6</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" t="n">
         <v>122.16</v>
       </c>
-      <c r="F46" s="3" t="n">
+      <c r="F46" t="n">
         <v>0.3</v>
       </c>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - SALA DOS SEGURANÇAS - 105</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>17074</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" t="n">
         <v>395346</v>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>No break 1200va</t>
         </is>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" t="n">
         <v>334</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" t="n">
         <v>33.4</v>
       </c>
-      <c r="F47" s="3" t="n">
+      <c r="F47" t="n">
         <v>12.5</v>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRÉDIO CRIME - ASSISTENTE SOCIAL </t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>17075</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" t="n">
         <v>484950</v>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Monitor de vídeo LCD de 21,5". Demais especificações conforme termo de referência.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" t="n">
         <v>600</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" t="n">
         <v>60</v>
       </c>
-      <c r="F48" s="3" t="n">
+      <c r="F48" t="n">
         <v>5.5</v>
       </c>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - 1ª VARA CRIMINAL/VARA DE EXECUÇÃO CRIMINAL</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>JUIZADO</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" t="n">
         <v>504945</v>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Cadeira giratória com rodízios (administrativa operacional), espaldar médio, com assento, encosto e braços reguláveis Encosto: Altura 510 mm; Largura 445 mm; Assento: Profundidade 460 mm; Largura 470 mm; Altura do assento em relação ao piso: 440 mm mínimo e 530 mm máximo.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" t="n">
         <v>593.27</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" t="n">
         <v>291.35</v>
       </c>
-      <c r="F49" s="3" t="n">
+      <c r="F49" t="n">
         <v>21</v>
       </c>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - CARTÓRIO</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1131</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" t="n">
         <v>504947</v>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Cadeira giratória com rodízios (administrativa operacional), espaldar médio, com assento, encosto e braços reguláveis Encosto: Altura 510 mm; Largura 445 mm; Assento: Profundidade 460 mm; Largura 470 mm; Altura do assento em relação ao piso: 440 mm mínimo e 530 mm máximo.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" t="n">
         <v>593.27</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" t="n">
         <v>291.35</v>
       </c>
-      <c r="F50" s="3" t="n">
+      <c r="F50" t="n">
         <v>21</v>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - DEPÓSITO - SÓTÃO - 6º andar-depósito</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>17077</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" t="n">
         <v>504969</v>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Cadeira giratória com rodízios (administrativa operacional), espaldar médio, com assento, encosto e braços reguláveis Encosto: Altura 510 mm; Largura 445 mm; Assento: Profundidade 460 mm; Largura 470 mm; Altura do assento em relação ao piso: 440 mm mínimo e 530 mm máximo.</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" t="n">
         <v>593.27</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" t="n">
         <v>291.35</v>
       </c>
-      <c r="F51" s="3" t="n">
+      <c r="F51" t="n">
         <v>21</v>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA DOS OFICIAIS DE JUSTIÇA</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" t="n">
         <v>456369</v>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Termômetro com acionamento automático sem contato, montado em totem de fixação. Demais especificações conforme Termo de Referência.</t>
         </is>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" t="n">
         <v>888</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" t="n">
         <v>667.36</v>
       </c>
-      <c r="F52" s="3" t="n">
+      <c r="F52" t="n">
         <v>15</v>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PRÉDIO CRIME - ÁREA DE CIRCULAÇÃO - TÉRREO</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>17573</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>TRAMANDAÍ</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" t="n">
         <v>458611</v>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">Detector de Metais Manual, (tipo raquete ou similar): cor predominante preta, estrutura em ABS injetado, com
 aviso de detecção sonoro e vibratório intenso (vibração forte), ajuste de sensibilidade manual, alimentação
@@ -7492,22 +8446,40 @@
 </t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" t="n">
         <v>286</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" t="n">
         <v>241.06</v>
       </c>
-      <c r="F53" s="3" t="n">
+      <c r="F53" t="n">
         <v>0.3</v>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>8.2024.7191/001166-9</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TRAMANDAÍ - FORO</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>DIREÇÃO DO FORO</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PRÉDIO CÍVEL - SALA 105 / Segurança</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>18017</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>